--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="ujemne" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>value1</t>
   </si>
@@ -76,6 +76,30 @@
   </si>
   <si>
     <t>-0</t>
+  </si>
+  <si>
+    <t>5X?zf7_&amp;</t>
+  </si>
+  <si>
+    <t>Y!_zW9^u</t>
+  </si>
+  <si>
+    <t>*5vC_ctB</t>
+  </si>
+  <si>
+    <t>W$5b3Quz</t>
+  </si>
+  <si>
+    <t>_7ZVSWn&amp;</t>
+  </si>
+  <si>
+    <t>e?6=JrXu</t>
+  </si>
+  <si>
+    <t>Khhd5k+E</t>
+  </si>
+  <si>
+    <t>N^33msP7</t>
   </si>
 </sst>
 </file>
@@ -432,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,10 +614,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,10 +625,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -612,10 +636,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,10 +647,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
